--- a/Tests/Network comparison results.xlsx
+++ b/Tests/Network comparison results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>Fidelity</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Star</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>0.99</t>
@@ -118,12 +115,12 @@
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="4"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -165,10 +162,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -396,15 +393,15 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -424,422 +421,402 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3">
-        <v>3.0</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>44593.0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44593.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3">
-        <v>5.0</v>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10.0</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7">
+        <v>44622.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44563.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44565.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44809.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44774.0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44743.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44808.0</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44778.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7">
         <v>44593.0</v>
       </c>
-      <c r="F5" s="7">
-        <v>44593.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3">
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44568.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44810.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
         <v>10.0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7">
-        <v>44622.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44563.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="7">
         <v>44565.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="3">
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
         <v>100.0</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44809.0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4">
         <v>6.0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
-        <v>44774.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>44743.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>44808.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>44778.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="7">
-        <v>44593.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7">
-        <v>44568.0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>44810.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>44565.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F22" s="4">
         <v>6.0</v>
       </c>
     </row>
